--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik november 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik november 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -841,7 +841,7 @@
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -856,19 +856,10 @@
     <t>1% filler,14% containsTotalMass,14% containsSingleMass,14% containsProduct,14% containsProductNr,14% containsAmount,14% SingleMassHeader,14% TotalMassHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -903,7 +894,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,7 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -993,21 +984,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF828081"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1044,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1122,14 +1098,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1137,29 +1105,35 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4306,7 +4280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1517E0F9-60F3-43CB-9514-D00472E9839A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69074D9F-B650-47FF-ADCE-47BA5B5950F2}">
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4716,9 +4690,6 @@
       <c r="G18" s="31">
         <v>1437.8</v>
       </c>
-      <c r="H18" s="42" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
@@ -4743,9 +4714,6 @@
       <c r="G19" s="31">
         <v>1714.56</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
@@ -4770,9 +4738,6 @@
       <c r="G20" s="27">
         <v>225</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
@@ -6437,7 +6402,7 @@
       <c r="B90" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="25">
@@ -6461,7 +6426,7 @@
       <c r="B91" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="25">
@@ -6485,7 +6450,7 @@
       <c r="B92" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="35" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="25">
@@ -6509,7 +6474,7 @@
       <c r="B93" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="35" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="25">
@@ -6533,7 +6498,7 @@
       <c r="B94" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="35" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="25">
@@ -6557,7 +6522,7 @@
       <c r="B95" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="35" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="25">
@@ -6698,7 +6663,7 @@
       <c r="A101" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="45">
+      <c r="B101" s="41">
         <v>3040</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -6706,11 +6671,11 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="46">
+      <c r="F101" s="42">
         <f>SUM(F7:F100)</f>
         <v>2277</v>
       </c>
-      <c r="G101" s="47">
+      <c r="G101" s="43">
         <f>SUM(G7:G100)</f>
         <v>96497.53000000004</v>
       </c>
@@ -7064,7 +7029,7 @@
       <c r="B117" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="37" t="s">
         <v>249</v>
       </c>
       <c r="D117" s="25">
@@ -7088,7 +7053,7 @@
       <c r="B118" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="37" t="s">
         <v>251</v>
       </c>
       <c r="D118" s="25">
@@ -7109,7 +7074,7 @@
       <c r="A119" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="45">
+      <c r="B119" s="41">
         <v>3040</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -7117,11 +7082,11 @@
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="46">
+      <c r="F119" s="42">
         <f>SUM(F104:F118)</f>
         <v>1234</v>
       </c>
-      <c r="G119" s="47">
+      <c r="G119" s="43">
         <f>SUM(G104:G118)</f>
         <v>38517.91000000001</v>
       </c>
@@ -7137,11 +7102,11 @@
         <v>253</v>
       </c>
       <c r="E121" s="4"/>
-      <c r="F121" s="46">
+      <c r="F121" s="42">
         <f>+F101+F119</f>
         <v>3511</v>
       </c>
-      <c r="G121" s="47">
+      <c r="G121" s="43">
         <f>+G101+G119</f>
         <v>135015.44000000006</v>
       </c>
@@ -7160,11 +7125,11 @@
       <c r="E122" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F122" s="50">
+      <c r="F122" s="44">
         <f>+F119/F121</f>
         <v>0.3514668185702079</v>
       </c>
-      <c r="G122" s="50">
+      <c r="G122" s="44">
         <f>+G119/G121</f>
         <v>0.2852852236751589</v>
       </c>
@@ -7176,7 +7141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047B3D2-663D-4E31-ACCD-271BEA1AFC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD97F3C-A30D-4409-8FB3-8977F1E79649}">
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7229,20 +7194,20 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>275</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>278</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -7252,19 +7217,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="57">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58">
+      <c r="E7" s="53">
+        <v>5</v>
+      </c>
+      <c r="F7" s="55">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
@@ -7276,19 +7241,19 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="53">
         <v>4</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="55">
         <f>+D8*E8</f>
         <v>20</v>
       </c>
@@ -7300,19 +7265,19 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="53">
         <v>9</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="55">
         <f>+D9*E9</f>
         <v>9</v>
       </c>
@@ -7324,19 +7289,19 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="53">
         <v>4</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="55">
         <f>+D10*E10</f>
         <v>20</v>
       </c>
@@ -7348,19 +7313,19 @@
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="53">
         <v>7</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="55">
         <f>+D11*E11</f>
         <v>7</v>
       </c>
@@ -7372,19 +7337,19 @@
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="53">
         <v>56</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="55">
         <f>+D12*E12</f>
         <v>280</v>
       </c>
@@ -7396,19 +7361,19 @@
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="50" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="53">
         <v>41</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="55">
         <f>+D13*E13</f>
         <v>41</v>
       </c>
@@ -7420,19 +7385,19 @@
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="53">
         <v>21</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="55">
         <f>+D14*E14</f>
         <v>105</v>
       </c>
@@ -7444,19 +7409,19 @@
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="53">
         <v>26</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="55">
         <f>+D15*E15</f>
         <v>26</v>
       </c>
@@ -7468,19 +7433,19 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="53">
         <v>4</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="55">
         <f>+D16*E16</f>
         <v>20</v>
       </c>
@@ -7492,19 +7457,19 @@
       <c r="A17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="50" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="53">
         <v>22</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="55">
         <f>+D17*E17</f>
         <v>22</v>
       </c>
@@ -7516,19 +7481,19 @@
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="57">
-        <v>5</v>
-      </c>
-      <c r="F18" s="58">
+      <c r="E18" s="53">
+        <v>5</v>
+      </c>
+      <c r="F18" s="55">
         <f>+D18*E18</f>
         <v>25</v>
       </c>
@@ -7540,19 +7505,19 @@
       <c r="A19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="53">
         <v>32</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="55">
         <f>+D19*E19</f>
         <v>32</v>
       </c>
@@ -7564,19 +7529,19 @@
       <c r="A20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="53">
         <v>2</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="55">
         <f>+D20*E20</f>
         <v>10</v>
       </c>
@@ -7588,19 +7553,19 @@
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="53">
         <v>2</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="55">
         <f>+D21*E21</f>
         <v>2</v>
       </c>
@@ -7612,19 +7577,19 @@
       <c r="A22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="57">
-        <v>1</v>
-      </c>
-      <c r="F22" s="58">
+      <c r="E22" s="53">
+        <v>1</v>
+      </c>
+      <c r="F22" s="55">
         <f>+D22*E22</f>
         <v>3</v>
       </c>
@@ -7636,19 +7601,19 @@
       <c r="A23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="57">
-        <v>1</v>
-      </c>
-      <c r="F23" s="58">
+      <c r="E23" s="53">
+        <v>1</v>
+      </c>
+      <c r="F23" s="55">
         <f>+D23*E23</f>
         <v>1</v>
       </c>
@@ -7660,19 +7625,19 @@
       <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="50" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="53">
         <v>3</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="55">
         <f>+D24*E24</f>
         <v>3</v>
       </c>
@@ -7684,19 +7649,19 @@
       <c r="A25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="53">
         <v>3</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="55">
         <f>+D25*E25</f>
         <v>3</v>
       </c>
@@ -7708,19 +7673,19 @@
       <c r="A26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="53">
         <v>4</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="55">
         <f>+D26*E26</f>
         <v>20</v>
       </c>
@@ -7732,19 +7697,19 @@
       <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="57">
-        <v>1</v>
-      </c>
-      <c r="F27" s="58">
+      <c r="E27" s="53">
+        <v>1</v>
+      </c>
+      <c r="F27" s="55">
         <f>+D27*E27</f>
         <v>1</v>
       </c>
@@ -7756,19 +7721,19 @@
       <c r="A28" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="53">
         <v>8</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="55">
         <f>+D28*E28</f>
         <v>8</v>
       </c>
@@ -7780,19 +7745,19 @@
       <c r="A29" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="53">
         <v>8</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="55">
         <f>+D29*E29</f>
         <v>40</v>
       </c>
@@ -7804,19 +7769,19 @@
       <c r="A30" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>11</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="55">
         <f>+D30*E30</f>
         <v>11</v>
       </c>
@@ -7828,19 +7793,19 @@
       <c r="A31" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="53">
         <v>28</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="55">
         <f>+D31*E31</f>
         <v>140</v>
       </c>
@@ -7852,19 +7817,19 @@
       <c r="A32" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="53">
         <v>2</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="55">
         <f>+D32*E32</f>
         <v>2</v>
       </c>
@@ -7876,19 +7841,19 @@
       <c r="A33" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="53">
         <v>2</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="55">
         <f>+D33*E33</f>
         <v>10</v>
       </c>
@@ -7900,19 +7865,19 @@
       <c r="A34" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="53">
         <v>4</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="55">
         <f>+D34*E34</f>
         <v>20</v>
       </c>
@@ -7924,19 +7889,19 @@
       <c r="A35" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="50" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="53">
         <v>28</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="55">
         <f>+D35*E35</f>
         <v>28</v>
       </c>
@@ -7948,19 +7913,19 @@
       <c r="A36" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="53">
         <v>2</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="55">
         <f>+D36*E36</f>
         <v>10</v>
       </c>
@@ -7972,19 +7937,19 @@
       <c r="A37" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="53">
         <v>3</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="55">
         <f>+D37*E37</f>
         <v>3</v>
       </c>
@@ -7996,19 +7961,19 @@
       <c r="A38" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="53">
         <v>2</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="55">
         <f>+D38*E38</f>
         <v>10</v>
       </c>
@@ -8020,19 +7985,19 @@
       <c r="A39" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="53">
         <v>7</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="55">
         <f>+D39*E39</f>
         <v>7</v>
       </c>
@@ -8044,19 +8009,19 @@
       <c r="A40" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="50" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="53">
         <v>6</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="55">
         <f>+D40*E40</f>
         <v>30</v>
       </c>
@@ -8068,19 +8033,19 @@
       <c r="A41" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="50" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="53">
         <v>2</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="55">
         <f>+D41*E41</f>
         <v>10</v>
       </c>
@@ -8092,19 +8057,19 @@
       <c r="A42" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="50" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="53">
         <v>2</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="55">
         <f>+D42*E42</f>
         <v>2</v>
       </c>
@@ -8116,19 +8081,19 @@
       <c r="A43" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="50" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="5">
         <v>5</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="53">
         <v>6</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="55">
         <f>+D43*E43</f>
         <v>30</v>
       </c>
@@ -8140,19 +8105,19 @@
       <c r="A44" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="50" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="53">
         <v>23</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="55">
         <f>+D44*E44</f>
         <v>23</v>
       </c>
@@ -8164,19 +8129,19 @@
       <c r="A45" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="50" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="53">
         <v>2</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="55">
         <f>+D45*E45</f>
         <v>10</v>
       </c>
@@ -8188,19 +8153,19 @@
       <c r="A46" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="50" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="53">
         <v>2</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="55">
         <f>+D46*E46</f>
         <v>2</v>
       </c>
@@ -8212,19 +8177,19 @@
       <c r="A47" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="50" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="53">
         <v>4</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="55">
         <f>+D47*E47</f>
         <v>20</v>
       </c>
@@ -8236,19 +8201,19 @@
       <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="50" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="57">
-        <v>1</v>
-      </c>
-      <c r="F48" s="58">
+      <c r="E48" s="53">
+        <v>1</v>
+      </c>
+      <c r="F48" s="55">
         <f>+D48*E48</f>
         <v>1</v>
       </c>
@@ -8260,19 +8225,19 @@
       <c r="A49" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="53">
         <v>54</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="55">
         <f>+D49*E49</f>
         <v>54</v>
       </c>
@@ -8284,19 +8249,19 @@
       <c r="A50" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
-      <c r="E50" s="57">
-        <v>1</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="E50" s="53">
+        <v>1</v>
+      </c>
+      <c r="F50" s="55">
         <f>+D50*E50</f>
         <v>5</v>
       </c>
@@ -8308,19 +8273,19 @@
       <c r="A51" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="50" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="53">
         <v>24</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="55">
         <f>+D51*E51</f>
         <v>24</v>
       </c>
@@ -8332,19 +8297,19 @@
       <c r="A52" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="50" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
-      <c r="E52" s="57">
-        <v>5</v>
-      </c>
-      <c r="F52" s="58">
+      <c r="E52" s="53">
+        <v>5</v>
+      </c>
+      <c r="F52" s="55">
         <f>+D52*E52</f>
         <v>25</v>
       </c>
@@ -8356,19 +8321,19 @@
       <c r="A53" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="53">
         <v>4</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="55">
         <f>+D53*E53</f>
         <v>4</v>
       </c>
@@ -8380,19 +8345,19 @@
       <c r="A54" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="50" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
-      <c r="E54" s="57">
+      <c r="E54" s="53">
         <v>2</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="55">
         <f>+D54*E54</f>
         <v>2</v>
       </c>
@@ -8404,19 +8369,19 @@
       <c r="A55" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="50" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
       </c>
-      <c r="E55" s="57">
-        <v>1</v>
-      </c>
-      <c r="F55" s="58">
+      <c r="E55" s="53">
+        <v>1</v>
+      </c>
+      <c r="F55" s="55">
         <f>+D55*E55</f>
         <v>5</v>
       </c>
@@ -8428,19 +8393,19 @@
       <c r="A56" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="50" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="53">
         <v>6</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="55">
         <f>+D56*E56</f>
         <v>6</v>
       </c>
@@ -8452,19 +8417,19 @@
       <c r="A57" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
       </c>
-      <c r="E57" s="57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="58">
+      <c r="E57" s="53">
+        <v>1</v>
+      </c>
+      <c r="F57" s="55">
         <f>+D57*E57</f>
         <v>5</v>
       </c>
@@ -8476,19 +8441,19 @@
       <c r="A58" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="53">
         <v>53</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="55">
         <f>+D58*E58</f>
         <v>53</v>
       </c>
@@ -8500,19 +8465,19 @@
       <c r="A59" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E59" s="53">
         <v>2</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="55">
         <f>+D59*E59</f>
         <v>10</v>
       </c>
@@ -8524,19 +8489,19 @@
       <c r="A60" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="50" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="57">
+      <c r="E60" s="53">
         <v>22</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="55">
         <f>+D60*E60</f>
         <v>22</v>
       </c>
@@ -8548,19 +8513,19 @@
       <c r="A61" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="50" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
-      <c r="E61" s="57">
-        <v>1</v>
-      </c>
-      <c r="F61" s="58">
+      <c r="E61" s="53">
+        <v>1</v>
+      </c>
+      <c r="F61" s="55">
         <f>+D61*E61</f>
         <v>5</v>
       </c>
@@ -8572,19 +8537,19 @@
       <c r="A62" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="50" t="s">
         <v>134</v>
       </c>
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="53">
         <v>11</v>
       </c>
-      <c r="F62" s="58">
+      <c r="F62" s="55">
         <f>+D62*E62</f>
         <v>11</v>
       </c>
@@ -8596,19 +8561,19 @@
       <c r="A63" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="50" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="53">
         <v>24</v>
       </c>
-      <c r="F63" s="58">
+      <c r="F63" s="55">
         <f>+D63*E63</f>
         <v>24</v>
       </c>
@@ -8620,19 +8585,19 @@
       <c r="A64" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E64" s="53">
         <v>11</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F64" s="55">
         <f>+D64*E64</f>
         <v>11</v>
       </c>
@@ -8644,19 +8609,19 @@
       <c r="A65" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="50" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="5">
         <v>5</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E65" s="53">
         <v>9</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="55">
         <f>+D65*E65</f>
         <v>45</v>
       </c>
@@ -8668,19 +8633,19 @@
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="53">
         <v>30</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="55">
         <f>+D66*E66</f>
         <v>30</v>
       </c>
@@ -8692,19 +8657,19 @@
       <c r="A67" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="50" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="5">
         <v>5</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E67" s="53">
         <v>10</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="55">
         <f>+D67*E67</f>
         <v>50</v>
       </c>
@@ -8716,19 +8681,19 @@
       <c r="A68" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="50" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
       </c>
-      <c r="E68" s="57">
+      <c r="E68" s="53">
         <v>8</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="55">
         <f>+D68*E68</f>
         <v>8</v>
       </c>
@@ -8740,19 +8705,19 @@
       <c r="A69" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="50" t="s">
         <v>148</v>
       </c>
       <c r="D69" s="5">
         <v>5</v>
       </c>
-      <c r="E69" s="57">
+      <c r="E69" s="53">
         <v>16</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="55">
         <f>+D69*E69</f>
         <v>80</v>
       </c>
@@ -8764,19 +8729,19 @@
       <c r="A70" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="50" t="s">
         <v>151</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
       </c>
-      <c r="E70" s="57">
-        <v>5</v>
-      </c>
-      <c r="F70" s="58">
+      <c r="E70" s="53">
+        <v>5</v>
+      </c>
+      <c r="F70" s="55">
         <f>+D70*E70</f>
         <v>5</v>
       </c>
@@ -8788,19 +8753,19 @@
       <c r="A71" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="50" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="5">
         <v>5</v>
       </c>
-      <c r="E71" s="57">
-        <v>1</v>
-      </c>
-      <c r="F71" s="58">
+      <c r="E71" s="53">
+        <v>1</v>
+      </c>
+      <c r="F71" s="55">
         <f>+D71*E71</f>
         <v>5</v>
       </c>
@@ -8812,19 +8777,19 @@
       <c r="A72" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="50" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="5">
         <v>1</v>
       </c>
-      <c r="E72" s="57">
+      <c r="E72" s="53">
         <v>34</v>
       </c>
-      <c r="F72" s="58">
+      <c r="F72" s="55">
         <f>+D72*E72</f>
         <v>34</v>
       </c>
@@ -8836,19 +8801,19 @@
       <c r="A73" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="50" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="57">
+      <c r="E73" s="53">
         <v>9</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="55">
         <f>+D73*E73</f>
         <v>9</v>
       </c>
@@ -8860,19 +8825,19 @@
       <c r="A74" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="5">
         <v>5</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="53">
         <v>3</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="55">
         <f>+D74*E74</f>
         <v>15</v>
       </c>
@@ -8884,19 +8849,19 @@
       <c r="A75" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
       </c>
-      <c r="E75" s="57">
-        <v>1</v>
-      </c>
-      <c r="F75" s="58">
+      <c r="E75" s="53">
+        <v>1</v>
+      </c>
+      <c r="F75" s="55">
         <f>+D75*E75</f>
         <v>1</v>
       </c>
@@ -8908,19 +8873,19 @@
       <c r="A76" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="50" t="s">
         <v>163</v>
       </c>
       <c r="D76" s="5">
         <v>5</v>
       </c>
-      <c r="E76" s="57">
-        <v>1</v>
-      </c>
-      <c r="F76" s="58">
+      <c r="E76" s="53">
+        <v>1</v>
+      </c>
+      <c r="F76" s="55">
         <f>+D76*E76</f>
         <v>5</v>
       </c>
@@ -8932,19 +8897,19 @@
       <c r="A77" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="50" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E77" s="53">
         <v>4</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="55">
         <f>+D77*E77</f>
         <v>4</v>
       </c>
@@ -8956,19 +8921,19 @@
       <c r="A78" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="53">
         <v>9</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="55">
         <f>+D78*E78</f>
         <v>9</v>
       </c>
@@ -8980,19 +8945,19 @@
       <c r="A79" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="50" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="5">
         <v>5</v>
       </c>
-      <c r="E79" s="57">
+      <c r="E79" s="53">
         <v>3</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="55">
         <f>+D79*E79</f>
         <v>15</v>
       </c>
@@ -9004,19 +8969,19 @@
       <c r="A80" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="50" t="s">
         <v>171</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="57">
+      <c r="E80" s="53">
         <v>13</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="55">
         <f>+D80*E80</f>
         <v>13</v>
       </c>
@@ -9028,19 +8993,19 @@
       <c r="A81" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C81" s="50" t="s">
         <v>174</v>
       </c>
       <c r="D81" s="5">
         <v>1</v>
       </c>
-      <c r="E81" s="57">
+      <c r="E81" s="53">
         <v>63</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F81" s="55">
         <f>+D81*E81</f>
         <v>63</v>
       </c>
@@ -9052,19 +9017,19 @@
       <c r="A82" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="50" t="s">
         <v>176</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="53">
         <v>3</v>
       </c>
-      <c r="F82" s="58">
+      <c r="F82" s="55">
         <f>+D82*E82</f>
         <v>15</v>
       </c>
@@ -9076,19 +9041,19 @@
       <c r="A83" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="50" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
       </c>
-      <c r="E83" s="57">
+      <c r="E83" s="53">
         <v>3</v>
       </c>
-      <c r="F83" s="58">
+      <c r="F83" s="55">
         <f>+D83*E83</f>
         <v>3</v>
       </c>
@@ -9100,19 +9065,19 @@
       <c r="A84" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="50" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
       </c>
-      <c r="E84" s="57">
+      <c r="E84" s="53">
         <v>4</v>
       </c>
-      <c r="F84" s="58">
+      <c r="F84" s="55">
         <f>+D84*E84</f>
         <v>20</v>
       </c>
@@ -9124,19 +9089,19 @@
       <c r="A85" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="50" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="53">
         <v>32</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="55">
         <f>+D85*E85</f>
         <v>32</v>
       </c>
@@ -9148,19 +9113,19 @@
       <c r="A86" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="50" t="s">
         <v>185</v>
       </c>
       <c r="D86" s="5">
         <v>5</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E86" s="53">
         <v>11</v>
       </c>
-      <c r="F86" s="58">
+      <c r="F86" s="55">
         <f>+D86*E86</f>
         <v>55</v>
       </c>
@@ -9172,19 +9137,19 @@
       <c r="A87" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="50" t="s">
         <v>187</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="53">
         <v>4</v>
       </c>
-      <c r="F87" s="58">
+      <c r="F87" s="55">
         <f>+D87*E87</f>
         <v>4</v>
       </c>
@@ -9196,19 +9161,19 @@
       <c r="A88" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="50" t="s">
         <v>190</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="57">
+      <c r="E88" s="53">
         <v>9</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="55">
         <f>+D88*E88</f>
         <v>9</v>
       </c>
@@ -9220,19 +9185,19 @@
       <c r="A89" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="50" t="s">
         <v>192</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
       </c>
-      <c r="E89" s="57">
+      <c r="E89" s="53">
         <v>50</v>
       </c>
-      <c r="F89" s="58">
+      <c r="F89" s="55">
         <f>+D89*E89</f>
         <v>50</v>
       </c>
@@ -9244,19 +9209,19 @@
       <c r="A90" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="50" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="53">
         <v>10</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="55">
         <f>+D90*E90</f>
         <v>10</v>
       </c>
@@ -9268,19 +9233,19 @@
       <c r="A91" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="50" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="5">
         <v>5</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="53">
         <v>12</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="55">
         <f>+D91*E91</f>
         <v>60</v>
       </c>
@@ -9292,19 +9257,19 @@
       <c r="A92" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="50" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="53">
         <v>3</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="55">
         <f>+D92*E92</f>
         <v>3</v>
       </c>
@@ -9316,19 +9281,19 @@
       <c r="A93" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="50" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="5">
         <v>5</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="53">
         <v>2</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="55">
         <f>+D93*E93</f>
         <v>10</v>
       </c>
@@ -9340,19 +9305,19 @@
       <c r="A94" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="50" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="53">
         <v>17</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="55">
         <f>+D94*E94</f>
         <v>17</v>
       </c>
@@ -9364,19 +9329,19 @@
       <c r="A95" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="50" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="53">
         <v>12</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="55">
         <f>+D95*E95</f>
         <v>60</v>
       </c>
@@ -9388,19 +9353,19 @@
       <c r="A96" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="50" t="s">
         <v>208</v>
       </c>
       <c r="D96" s="5">
         <v>1</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="53">
         <v>4</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="55">
         <f>+D96*E96</f>
         <v>4</v>
       </c>
@@ -9412,19 +9377,19 @@
       <c r="A97" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="50" t="s">
         <v>210</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="53">
         <v>10</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="55">
         <f>+D97*E97</f>
         <v>10</v>
       </c>
@@ -9436,19 +9401,19 @@
       <c r="A98" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="50" t="s">
         <v>212</v>
       </c>
       <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="53">
         <v>27</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="55">
         <f>+D98*E98</f>
         <v>135</v>
       </c>
@@ -9460,19 +9425,19 @@
       <c r="A99" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="50" t="s">
         <v>215</v>
       </c>
       <c r="D99" s="5">
         <v>1</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="53">
         <v>6</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="55">
         <f>+D99*E99</f>
         <v>6</v>
       </c>
@@ -9484,19 +9449,19 @@
       <c r="A100" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="50" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="5">
         <v>5</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="53">
         <v>9</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="55">
         <f>+D100*E100</f>
         <v>45</v>
       </c>
@@ -9508,15 +9473,15 @@
       <c r="A101" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="48">
         <v>3040</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="51" t="s">
         <v>219</v>
       </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="3">
+      <c r="E101" s="54"/>
+      <c r="F101" s="56">
         <f>SUM(F7:F100)</f>
         <v>2277</v>
       </c>
@@ -9536,20 +9501,20 @@
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="52" t="s">
+      <c r="B103" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F103" s="52" t="s">
         <v>275</v>
-      </c>
-      <c r="C103" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="D103" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="F103" s="56" t="s">
-        <v>278</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>10</v>
@@ -9559,19 +9524,19 @@
       <c r="A104" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="50" t="s">
         <v>222</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
       </c>
-      <c r="E104" s="57">
+      <c r="E104" s="53">
         <v>103</v>
       </c>
-      <c r="F104" s="58">
+      <c r="F104" s="55">
         <f>+D104*E104</f>
         <v>103</v>
       </c>
@@ -9583,19 +9548,19 @@
       <c r="A105" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C105" s="50" t="s">
         <v>224</v>
       </c>
       <c r="D105" s="5">
         <v>5</v>
       </c>
-      <c r="E105" s="57">
+      <c r="E105" s="53">
         <v>34</v>
       </c>
-      <c r="F105" s="58">
+      <c r="F105" s="55">
         <f>+D105*E105</f>
         <v>170</v>
       </c>
@@ -9607,19 +9572,19 @@
       <c r="A106" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="C106" s="50" t="s">
         <v>226</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
       </c>
-      <c r="E106" s="57">
+      <c r="E106" s="53">
         <v>143</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="55">
         <f>+D106*E106</f>
         <v>143</v>
       </c>
@@ -9631,19 +9596,19 @@
       <c r="A107" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="50" t="s">
         <v>228</v>
       </c>
       <c r="D107" s="5">
         <v>5</v>
       </c>
-      <c r="E107" s="57">
+      <c r="E107" s="53">
         <v>116</v>
       </c>
-      <c r="F107" s="58">
+      <c r="F107" s="55">
         <f>+D107*E107</f>
         <v>580</v>
       </c>
@@ -9655,19 +9620,19 @@
       <c r="A108" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="55" t="s">
+      <c r="C108" s="50" t="s">
         <v>230</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
       </c>
-      <c r="E108" s="57">
+      <c r="E108" s="53">
         <v>7</v>
       </c>
-      <c r="F108" s="58">
+      <c r="F108" s="55">
         <f>+D108*E108</f>
         <v>7</v>
       </c>
@@ -9679,19 +9644,19 @@
       <c r="A109" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="55" t="s">
+      <c r="C109" s="50" t="s">
         <v>232</v>
       </c>
       <c r="D109" s="5">
         <v>1</v>
       </c>
-      <c r="E109" s="57">
+      <c r="E109" s="53">
         <v>4</v>
       </c>
-      <c r="F109" s="58">
+      <c r="F109" s="55">
         <f>+D109*E109</f>
         <v>4</v>
       </c>
@@ -9703,19 +9668,19 @@
       <c r="A110" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="55" t="s">
+      <c r="C110" s="50" t="s">
         <v>234</v>
       </c>
       <c r="D110" s="5">
         <v>5</v>
       </c>
-      <c r="E110" s="57">
+      <c r="E110" s="53">
         <v>10</v>
       </c>
-      <c r="F110" s="58">
+      <c r="F110" s="55">
         <f>+D110*E110</f>
         <v>50</v>
       </c>
@@ -9727,19 +9692,19 @@
       <c r="A111" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="50" t="s">
         <v>236</v>
       </c>
       <c r="D111" s="5">
         <v>1</v>
       </c>
-      <c r="E111" s="57">
+      <c r="E111" s="53">
         <v>17</v>
       </c>
-      <c r="F111" s="58">
+      <c r="F111" s="55">
         <f>+D111*E111</f>
         <v>17</v>
       </c>
@@ -9751,19 +9716,19 @@
       <c r="A112" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="50" t="s">
         <v>238</v>
       </c>
       <c r="D112" s="5">
         <v>5</v>
       </c>
-      <c r="E112" s="57">
-        <v>1</v>
-      </c>
-      <c r="F112" s="58">
+      <c r="E112" s="53">
+        <v>1</v>
+      </c>
+      <c r="F112" s="55">
         <f>+D112*E112</f>
         <v>5</v>
       </c>
@@ -9775,19 +9740,19 @@
       <c r="A113" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="50" t="s">
         <v>240</v>
       </c>
       <c r="D113" s="5">
         <v>5</v>
       </c>
-      <c r="E113" s="57">
+      <c r="E113" s="53">
         <v>4</v>
       </c>
-      <c r="F113" s="58">
+      <c r="F113" s="55">
         <f>+D113*E113</f>
         <v>20</v>
       </c>
@@ -9799,19 +9764,19 @@
       <c r="A114" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="50" t="s">
         <v>242</v>
       </c>
       <c r="D114" s="5">
         <v>1</v>
       </c>
-      <c r="E114" s="57">
+      <c r="E114" s="53">
         <v>11</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="55">
         <f>+D114*E114</f>
         <v>11</v>
       </c>
@@ -9823,19 +9788,19 @@
       <c r="A115" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="50" t="s">
         <v>244</v>
       </c>
       <c r="D115" s="5">
         <v>5</v>
       </c>
-      <c r="E115" s="57">
+      <c r="E115" s="53">
         <v>19</v>
       </c>
-      <c r="F115" s="58">
+      <c r="F115" s="55">
         <f>+D115*E115</f>
         <v>95</v>
       </c>
@@ -9847,19 +9812,19 @@
       <c r="A116" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="55" t="s">
+      <c r="C116" s="50" t="s">
         <v>246</v>
       </c>
       <c r="D116" s="5">
         <v>5</v>
       </c>
-      <c r="E116" s="57">
+      <c r="E116" s="53">
         <v>4</v>
       </c>
-      <c r="F116" s="58">
+      <c r="F116" s="55">
         <f>+D116*E116</f>
         <v>20</v>
       </c>
@@ -9871,19 +9836,19 @@
       <c r="A117" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="50" t="s">
         <v>249</v>
       </c>
       <c r="D117" s="5">
         <v>1</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="53">
         <v>4</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F117" s="55">
         <f>+D117*E117</f>
         <v>4</v>
       </c>
@@ -9895,19 +9860,19 @@
       <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="50" t="s">
         <v>251</v>
       </c>
       <c r="D118" s="5">
         <v>5</v>
       </c>
-      <c r="E118" s="8">
-        <v>1</v>
-      </c>
-      <c r="F118" s="8">
+      <c r="E118" s="53">
+        <v>1</v>
+      </c>
+      <c r="F118" s="55">
         <f>+D118*E118</f>
         <v>5</v>
       </c>
@@ -9919,15 +9884,15 @@
       <c r="A119" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="48">
         <v>3040</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="51" t="s">
         <v>219</v>
       </c>
       <c r="D119" s="7"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3">
+      <c r="E119" s="54"/>
+      <c r="F119" s="56">
         <f>SUM(F104:F118)</f>
         <v>1234</v>
       </c>
